--- a/ref/loading_tips.xlsx
+++ b/ref/loading_tips.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stuhqueducn-my.sharepoint.com/personal/1995131017_stu_hqu_edu_cn/Documents/原神/Teyvat/ref/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="11_AD4DA82427541F7ACA7EB84A800B28266AE8DE11" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BB60068-367B-4E61-AD1D-901A070BA388}"/>
+  <xr:revisionPtr revIDLastSave="154" documentId="11_AD4DA82427541F7ACA7EB84A800B28266AE8DE11" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23B52956-813A-417B-AAB7-466B474D3656}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="1110" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4995" yWindow="7605" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="l_english" sheetId="1" r:id="rId1"/>
     <sheet name="l_chinese" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">l_chinese!$A$1:$C$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="197">
   <si>
     <t>阿贝多</t>
   </si>
@@ -52,12 +55,6 @@
     <t>侦察骑士登场！</t>
   </si>
   <si>
-    <t>想要了解安柏·其四</t>
-  </si>
-  <si>
-    <t>我因为爷爷才加入骑士团，又因为琴留在了团里。现在，是你陪我见到了蒙德以外的天空。我真的很开心。</t>
-  </si>
-  <si>
     <t>芭芭拉</t>
   </si>
   <si>
@@ -76,12 +73,6 @@
     <t>班尼特</t>
   </si>
   <si>
-    <t>想要了解班尼特·其五</t>
-  </si>
-  <si>
-    <t>不知不觉，我们已经搭档很长时间了。其实我有一个梦想，等到蒙德城的冒险家协会发展成七国里最壮大的协会，我就要去周游提瓦特大陆！「班尼冒险团」会变成最伟大的冒险团，而我们，就是最伟大的两位冒险家！…你问你什么时候加入的？哎呀，这种细节不用在意嘛。</t>
-  </si>
-  <si>
     <t>元素爆发·其三</t>
   </si>
   <si>
@@ -115,24 +106,12 @@
     <t>嗯…要是风大点就好了。</t>
   </si>
   <si>
-    <t>关于芭芭拉自己···</t>
-  </si>
-  <si>
-    <t>「指引我前进的风啊。在我困顿时给我继续前行的力量，在我迷惑时给我辨明善恶的智慧。在我遭受不义时，给我抗争的勇气...」哎呀，抱歉，刚才在专注着祈祷。有什么事吗？</t>
-  </si>
-  <si>
     <t>关于「神之眼」…</t>
   </si>
   <si>
     <t>没想到我这么倒霉的人也可以获得神的认可，既然神都没有放弃我，我又怎么能放弃我自己呢？</t>
   </si>
   <si>
-    <t>想要了解北斗·其三</t>
-  </si>
-  <si>
-    <t>问我帮助平民的用意？哈，哪有什么用意不用意的。谁的人生还没有个低谷。我的帮助是小事，但对他们而言，迈不迈得过去那道坎，可能就是两条路啊。</t>
-  </si>
-  <si>
     <t>达达利亚</t>
   </si>
   <si>
@@ -148,12 +127,6 @@
     <t>迪奥娜</t>
   </si>
   <si>
-    <t>关于迪奥娜自己···</t>
-  </si>
-  <si>
-    <t>耳朵和尾巴才不是什么装饰，是「凯茨莱茵家族」血统的象征，真是少见多怪。呃…你、你把手伸过来干什么?这个...唔…好吧，耳朵的话可以让你摸一下...但是尾巴、尾巴绝对不可以!</t>
-  </si>
-  <si>
     <t>想要了解迪奥娜·其四</t>
   </si>
   <si>
@@ -181,12 +154,6 @@
     <t>菲谢尔</t>
   </si>
   <si>
-    <t>想要了解菲谢尔·其二</t>
-  </si>
-  <si>
-    <t>我的左眼？我的左眼是透彻世间一切真相的「断罪之眼」。至于为何要遮起来…那么，窥见此间与彼方一切真实的负担与痛，你愿意承受吗？再说了，通晓此世与常世一切妄念与谎言，又是何等无趣的事，哼哼。</t>
-  </si>
-  <si>
     <t>想要了解菲谢尔·其五</t>
   </si>
   <si>
@@ -253,9 +220,6 @@
     <t>蹦蹦炸弹！</t>
   </si>
   <si>
-    <t>全—都可以炸完！</t>
-  </si>
-  <si>
     <t>冲刺开始·其二</t>
   </si>
   <si>
@@ -265,12 +229,6 @@
     <t>刻晴</t>
   </si>
   <si>
-    <t>关于刻晴自己·质疑</t>
-  </si>
-  <si>
-    <t>在你看来，支撑璃月走过千年，最重要的东西是什么？…帝君？…我不这么觉得，因为必须依靠努力才能生存下去的，终究是我们人类啊。高高在上的他却要介入一切。哼，说句不好听的，他真的什么都懂吗？</t>
-  </si>
-  <si>
     <t>能和你一路结伴而行，我感觉受益匪浅。如果真的有一天，我抵达了理想中的终点…我的身边，还会有你陪伴吗？</t>
   </si>
   <si>
@@ -292,12 +250,6 @@
     <t>谁？</t>
   </si>
   <si>
-    <t>想要了解影·其五</t>
-  </si>
-  <si>
-    <t>恐惧是因为我在五百年前目睹了她的消亡和「那个事物」。但，如果.. 如果是你的话，一定可以拯救所有人的。如果是你的话，一定会拯救世界的。 就像是我记得稻妻的一切一样，只要你记得我，我就能永远地活着。</t>
-  </si>
-  <si>
     <t>雷泽</t>
   </si>
   <si>
@@ -313,21 +265,12 @@
     <t>Blitz！</t>
   </si>
   <si>
-    <t>嚎——</t>
-  </si>
-  <si>
     <t>旅行者</t>
   </si>
   <si>
     <t>随风而去吧。</t>
   </si>
   <si>
-    <t>倒下·其二</t>
-  </si>
-  <si>
-    <t>世界…拒绝了我？</t>
-  </si>
-  <si>
     <t>加入队伍·其二</t>
   </si>
   <si>
@@ -337,12 +280,6 @@
     <t>莫娜</t>
   </si>
   <si>
-    <t>闲聊·占卜</t>
-  </si>
-  <si>
-    <t>占卜就是把既定的命运准确地展示出来。过度的修饰，只会让人们产生误解。</t>
-  </si>
-  <si>
     <t>突破的感受·转</t>
   </si>
   <si>
@@ -355,12 +292,6 @@
     <t>凝光</t>
   </si>
   <si>
-    <t>有什么想要分享·庄家</t>
-  </si>
-  <si>
-    <t>赌徒永远会把希望寄托在下一颗骰子上…但最后赚钱的，当然是从来不碰骰子的庄家。</t>
-  </si>
-  <si>
     <t>突破的感受·起</t>
   </si>
   <si>
@@ -376,9 +307,6 @@
     <t>只要你需要我，我随时都会出现在你的身边。</t>
   </si>
   <si>
-    <t>说实话，有些失望…虽然这「神之眼」象征神明对我的肯定，但为什么不是「风」，而是与风的性质相差最远的「岩」呢？我觉得最适合西风骑士团的元素，毕竟还是…</t>
-  </si>
-  <si>
     <t>这就是…新的力量？谢谢你，这样我就能帮到更多人了。</t>
   </si>
   <si>
@@ -406,12 +334,6 @@
     <t>刀剑抱业，名工怀宝。</t>
   </si>
   <si>
-    <t>下雪的时候…</t>
-  </si>
-  <si>
-    <t>「雪霁银妆素，桔高映琼枝。」嗯…美景当前，只差一壶茶与之相衬呢。</t>
-  </si>
-  <si>
     <t>神里流…霜灭！</t>
   </si>
   <si>
@@ -424,12 +346,6 @@
     <t>别想逃开喔？</t>
   </si>
   <si>
-    <t>冲刺开始·其一</t>
-  </si>
-  <si>
-    <t>飞，比跑快吧？</t>
-  </si>
-  <si>
     <t>魈</t>
   </si>
   <si>
@@ -463,12 +379,6 @@
     <t>衣裓贮文章，自言学雕虫。</t>
   </si>
   <si>
-    <t>生命值低·其三</t>
-  </si>
-  <si>
-    <t>「请从绝处，读我侠义。」</t>
-  </si>
-  <si>
     <t>烟绯</t>
   </si>
   <si>
@@ -517,9 +427,6 @@
     <t>俗语说：「业精于勤而荒于嬉。」</t>
   </si>
   <si>
-    <t>枪术千变万化，奥妙无比，让我庆幸的是，练枪时一直有你相伴。我已经领悟到其中旨要。往后切磋时，你可得小心了。</t>
-  </si>
-  <si>
     <t>钟离</t>
   </si>
   <si>
@@ -536,9 +443,6 @@
   </si>
   <si>
     <t>剑印染冰！</t>
-  </si>
-  <si>
-    <t>听我法旨。</t>
   </si>
   <si>
     <t>宝印幻剑！</t>
@@ -548,37 +452,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>派蒙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF222222"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>诶嘿</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF222222"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前面的区域，以后再来探索吧。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>留云借风真君</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -595,14 +468,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>咦，刚刚···我想说什么来着···</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闲聊·自言自语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>「不期修古，不法常可」，这句话是我必须牢记的教诲。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -617,13 +482,161 @@
   <si>
     <t>闲聊·锻炼</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荒泷一斗</t>
+  </si>
+  <si>
+    <t>闲聊·到此一游</t>
+  </si>
+  <si>
+    <t>嘿嘿，荒泷天下第一斗到此一游！ 哈哈哈哈…咳…</t>
+  </si>
+  <si>
+    <t>有什么想要分享·希娜小姐</t>
+  </si>
+  <si>
+    <t>你要是有什么烦恼，可以试着给《闲事月刊》的问答栏目投稿，希娜小姐一定会给你一个温暖人心的答案。啊…托她的福，我的灵魂已经不再迷茫了…对了，我还报名了希娜小姐的线下见面会，唉这日子怎么就过得那么慢呢。</t>
+  </si>
+  <si>
+    <t>珊瑚宫心海</t>
+  </si>
+  <si>
+    <t>闲聊·游鱼</t>
+  </si>
+  <si>
+    <t>每个生灵的意志都值得尊重，就像海中的游鱼，也有自己的方向。</t>
+  </si>
+  <si>
+    <t>闲聊·准备</t>
+  </si>
+  <si>
+    <t>未雨绸缪，才能临危不乱。</t>
+  </si>
+  <si>
+    <t>早柚</t>
+  </si>
+  <si>
+    <t>起风的时候…</t>
+  </si>
+  <si>
+    <t>风起之时，便是开溜的好时机。</t>
+  </si>
+  <si>
+    <t>想要了解早柚·其一</t>
+  </si>
+  <si>
+    <t>呼——</t>
+  </si>
+  <si>
+    <t>胡桃</t>
+  </si>
+  <si>
+    <t>闲聊·客户</t>
+  </si>
+  <si>
+    <t>一个客户，两个客户，三个客户···</t>
+  </si>
+  <si>
+    <t>闲聊·偷懒</t>
+  </si>
+  <si>
+    <t>太阳出来我晒太阳，月亮出来我晒月亮咯~</t>
+  </si>
+  <si>
+    <t>甘雨</t>
+  </si>
+  <si>
+    <t>晚安···</t>
+  </si>
+  <si>
+    <t>愿帝君保佑你，愿你的每个梦都踏实而香甜。</t>
+  </si>
+  <si>
+    <t>禁止接触。</t>
+  </si>
+  <si>
+    <t>琴</t>
+  </si>
+  <si>
+    <t>闲聊·行动</t>
+  </si>
+  <si>
+    <t>行动起来吧，我们不该在这里停留。</t>
+  </si>
+  <si>
+    <t>闲聊·目标</t>
+  </si>
+  <si>
+    <t>走吧，前往下一个目标！</t>
+  </si>
+  <si>
+    <t>优菈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">晚上好… </t>
+  </si>
+  <si>
+    <t>「愿柔风伴你，度过安详的一夜。」…旧贵族的问候语里，难得有这么中听的一句。</t>
+  </si>
+  <si>
+    <t>不错，以我现在的实力，哪怕和代理团长一较高下，也十拿九稳了！</t>
+  </si>
+  <si>
+    <t>香菱</t>
+  </si>
+  <si>
+    <t>锅巴，喷火！</t>
+  </si>
+  <si>
+    <t>见识下师父的枪法！</t>
+  </si>
+  <si>
+    <t>丽莎</t>
+  </si>
+  <si>
+    <t>闲聊·任务</t>
+  </si>
+  <si>
+    <t>任务是做不完的，还不如陪姐姐…聊会儿天。</t>
+  </si>
+  <si>
+    <t>…Blitz！</t>
+  </si>
+  <si>
+    <t>罗莎莉亚</t>
+  </si>
+  <si>
+    <t>闲聊·加班</t>
+  </si>
+  <si>
+    <t>什么都可以商量，除了加班。</t>
+  </si>
+  <si>
+    <t>也好。能力越强，效率越高。</t>
+  </si>
+  <si>
+    <t>诶嘿。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avatar</t>
+  </si>
+  <si>
+    <t>quote_title</t>
+  </si>
+  <si>
+    <t>quote</t>
+  </si>
+  <si>
+    <t>邪魔退去！</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -639,18 +652,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="微软雅黑"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -661,7 +668,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -669,12 +676,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -969,10 +994,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E59697-9886-4265-BDD2-7567D22B00D1}">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -983,14 +1008,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
+      <c r="A1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1009,21 +1034,21 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1031,10 +1056,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1042,26 +1067,26 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -1072,216 +1097,216 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
         <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
         <v>35</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
         <v>39</v>
-      </c>
-      <c r="B18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
         <v>42</v>
-      </c>
-      <c r="C19" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
         <v>46</v>
-      </c>
-      <c r="B22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
         <v>50</v>
-      </c>
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
         <v>53</v>
-      </c>
-      <c r="C24" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
         <v>56</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>57</v>
-      </c>
-      <c r="C26" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
         <v>59</v>
-      </c>
-      <c r="C27" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
         <v>61</v>
@@ -1292,21 +1317,21 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" t="s">
         <v>63</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>64</v>
-      </c>
-      <c r="C29" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
         <v>66</v>
@@ -1314,65 +1339,68 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>173</v>
+        <v>65</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>175</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1380,73 +1408,70 @@
         <v>78</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>83</v>
-      </c>
-      <c r="B40" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B42" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C42" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
         <v>92</v>
@@ -1454,57 +1479,54 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C44" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="C45" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="C46" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B47" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>96</v>
-      </c>
-      <c r="B48" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C48" t="s">
-        <v>101</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1520,29 +1542,29 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B50" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C50" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B51" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="C51" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B52" t="s">
         <v>109</v>
@@ -1553,103 +1575,109 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>108</v>
+        <v>111</v>
+      </c>
+      <c r="B53" t="s">
+        <v>112</v>
       </c>
       <c r="C53" t="s">
-        <v>172</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B54" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C54" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B55" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C55" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B56" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B57" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C57" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B58" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C58" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B59" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>176</v>
+        <v>122</v>
+      </c>
+      <c r="B60" t="s">
+        <v>83</v>
       </c>
       <c r="C60" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B61" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="C61" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B62" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="C62" t="s">
         <v>127</v>
@@ -1657,21 +1685,21 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="C63" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B64" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="C64" t="s">
         <v>131</v>
@@ -1679,299 +1707,311 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B65" t="s">
+        <v>133</v>
+      </c>
+      <c r="C65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>132</v>
       </c>
-      <c r="C65" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>129</v>
+      <c r="B66" t="s">
+        <v>14</v>
       </c>
       <c r="C66" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B67" t="s">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="C67" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B68" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C68" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B69" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" t="s">
         <v>138</v>
-      </c>
-      <c r="C69" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B70" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="C70" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B71" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C71" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B72" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C72" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B73" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="C73" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B74" t="s">
-        <v>3</v>
+        <v>154</v>
       </c>
       <c r="C74" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B75" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C75" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B76" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C76" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B77" t="s">
-        <v>3</v>
+        <v>161</v>
       </c>
       <c r="C77" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="B78" t="s">
-        <v>105</v>
+        <v>164</v>
       </c>
       <c r="C78" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B79" t="s">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="C79" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="B80" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="C80" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B81" t="s">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="C81" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="B82" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="C82" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="B83" t="s">
-        <v>48</v>
+        <v>175</v>
       </c>
       <c r="C83" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="B84" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C84" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="B85" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C85" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="B86" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C86" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="B87" t="s">
-        <v>165</v>
+        <v>14</v>
       </c>
       <c r="C87" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="B88" t="s">
-        <v>93</v>
+        <v>185</v>
       </c>
       <c r="C88" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B89" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="C89" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B90" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C90" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B91" t="s">
-        <v>185</v>
+        <v>83</v>
       </c>
       <c r="C91" t="s">
-        <v>184</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>140</v>
+      </c>
+      <c r="C92" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C1" xr:uid="{B7E59697-9886-4265-BDD2-7567D22B00D1}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
